--- a/database/httpsitagakinatsukijimdofreecomE4BD9CE59381E99B86.xlsx
+++ b/database/httpsitagakinatsukijimdofreecomE4BD9CE59381E99B86.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1:B358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1929,6 +1929,1478 @@
         </is>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://a.jimdo.com/app/auth/signin/jumpcms/?page=1562782115</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>編集</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i005090392029164a/version/1646929112/image.jpg</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i01be765f80941c06/version/1646929103/image.jpg</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i039834656532105f/version/1646929108/image.jpg</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i050ddc7dfa75ee69/version/1646929111/image.jpg</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i051a2901589b25a6/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i0745323604cc908f/version/1635076404/image.jpg</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i078130cb06f54beb/version/1635076491/image.jpg</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i0a579a3a729bbcc9/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i10e69bd63bf63dce/version/1646929110/image.jpg</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i146ce3dabe1e0eb7/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i173607f90548b787/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i18f2ea007cd02faa/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i19629a70a44fc4af/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i219cecf0e513ae48/version/1635076404/image.jpg</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i22ae4878c006cb4f/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i235a18844ad5ea85/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i2505c90387da12aa/version/1646929108/image.jpg</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i263992845b617863/version/1646929105/image.jpg</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i2727629e5f139d7f/version/1635076010/image.jpg</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i295133d67c9f3b4d/version/1646929109/image.jpg</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i2a114172e536271a/version/1646929100/image.jpg</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i2c72175291d3c909/version/1635076010/image.jpg</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i32a11b5990c7dc6d/version/1646929104/image.jpg</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i34c8e135b8c92399/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i3555b931f77defc4/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i3566dbd051f9e866/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i35f43b4358bf9f52/version/1646929110/image.jpg</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i389949f5ee4537e6/version/1646929099/image.jpg</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i398ddfa20f743461/version/1646929106/image.jpg</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i3b89c7cf075d82a3/version/1635076010/image.jpg</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i3c4496db24528ac0/version/1646929100/image.jpg</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i3e0f3b0ecd080fc1/version/1646929111/image.jpg</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i3e942e41c3ccc342/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i413086f951544a41/version/1646929099/image.jpg</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i418dd023d802b031/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i422b44d694a077ef/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i435fd1f748401b17/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i43b6038de8c024fd/version/1646929109/image.jpg</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i43e8385ae64e6946/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i47184a51639e8b52/version/1646929110/image.jpg</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i481b091be75623b0/version/1646929102/image.jpg</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i48c46319a40874a1/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i4b0e594a615b3d48/version/1635076410/image.jpg</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i502a67f5a2925608/version/1646929106/image.jpg</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i51c90a858c3be493/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i5396e07ee7a1ffa7/version/1646929111/image.jpg</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i541f751f3476e3cd/version/1646929109/image.jpg</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i54d5440b2d5bfaeb/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i55e2b563306938e1/version/1635076404/image.jpg</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i56fd32938620a718/version/1646929107/image.jpg</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i579b4d1268842cbf/version/1646929105/image.jpg</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i5b1b6327720fe7f1/version/1646929107/image.jpg</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i5c0845461b8a3d9b/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i5c31b4be9f3f814c/version/1646929102/image.jpg</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i6cbda3d7d2e545f6/version/1646929102/image.jpg</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i704800dd3bdc643e/version/1646929108/image.jpg</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i70481b99d3df06dd/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i726c24c4db2279fb/version/1646929104/image.jpg</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i75ecd7691d32c71d/version/1635076404/image.jpg</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i76656c2237e74132/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i7cd1d35971377ed1/version/1646929102/image.jpg</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i7d2b8c7039fc1196/version/1646929111/image.jpg</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i7d96f5e5100e6c88/version/1646929101/image.jpg</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i811df474818c3780/version/1646929104/image.jpg</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i817c9b5dd7c93f21/version/1646929101/image.jpg</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i8575ae6b579812f6/version/1635076010/image.jpg</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i85cf2e93bdb6c41c/version/1646929105/image.jpg</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i89413794d00c3b79/version/1646929101/image.jpg</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i8af1893088f9847d/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i8ba72d1e7f928900/version/1646929106/image.jpg</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i8ba80c218ef44e58/version/1646929110/image.jpg</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i8d1a068951673c14/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i903067de24ff7616/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i909b610d28b3ea80/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i942768c8436ea977/version/1646929105/image.jpg</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i9624ab79fcdd3f4e/version/1646929108/image.jpg</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i989b5b1b7caa594c/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i98a2323c56545952/version/1646929109/image.jpg</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i99c3daa3aea931d9/version/1646929103/image.jpg</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i9afc0e96e6fe5f2a/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i9d0529ca593699a9/version/1646929100/image.jpg</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/i9eb33f3632dc3f1a/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ia1640fe84bf63f0c/version/1646929104/image.jpg</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ia41b732bfd5c7522/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ia5b61412f7b74f2a/version/1635076010/image.jpg</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/iab230d66d68c56f3/version/1646929105/image.jpg</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/iabe15d4a8c565a80/version/1646929103/image.jpg</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/iac4bb1288e6a081e/version/1646929101/image.jpg</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/iac4ca0366306d53d/version/1635076404/image.jpg</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/iad12607b266cf22b/version/1646929106/image.jpg</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/iadd519664351c16d/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/iadd708363ad21273/version/1646929104/image.jpg</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/iaf662d66de246865/version/1646929107/image.jpg</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ib2bbf54121e2a4a6/version/1646929106/image.jpg</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ib3ed044d48b76982/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ib7986ee62c17a11d/version/1646929107/image.jpg</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ib9460d79ce50cc9e/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/iba3128e99badd04e/version/1635076010/image.jpg</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ic4dddc72c39ab8f0/version/1646929100/image.jpg</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ic7cb89dc581da7b8/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ic869b6d16f6181c0/version/1646929109/image.jpg</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ic8f124ed509da52f/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ic913b611b26c1ef1/version/1646929105/image.jpg</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ic96e12a657a6c571/version/1635076404/image.jpg</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/id0943e8de911d0b8/version/1635073004/image.jpg</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/id2e1c69302dea5e7/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/id2fc688ee1f6e38b/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ida92caf75384617b/version/1646929107/image.jpg</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/idb5e473738881726/version/1646929110/image.jpg</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/idc034ca8257ef08a/version/1646929111/image.jpg</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/iddf47456dce1035c/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ie1595838280bea52/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ie6a467087d84362e/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ie81e3c115e78fc92/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ieaa86a608ac534ac/version/1635076404/image.jpg</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/iecdab1a402e9e866/version/1646929101/image.jpg</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/iece3b1282fc0e013/version/1646929108/image.jpg</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/if07f017eb385b089/version/1646929110/image.jpg</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/if0eb051e15a3c622/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/if2e846c882326c2b/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/if4e3695c5465691a/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/if5b97edfc069b989/version/1635076007/image.jpg</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/if73ffd7a60429501/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/if7acd6f79f6e6079/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ifd17fdddd54c38d5/version/1646929103/image.jpg</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/ife5e1b5d00ff5070/version/1646929101/image.jpg</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg/path/s84b4360c536d0972/image/iff53e3ee9f8c77c8/version/1646929104/image.jpg</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/dimension=2048x2048:format=jpg:rotate=90/path/s84b4360c536d0972/image/i98cede466d28626e/version/1646929109/image.jpg</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i06667ca14b312e58/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i0a9b4e39d8ab4070/version/1635076410/image.jpg</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i0d0c95366663030b/version/1646929112/image.jpg</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i0d6e01394e330cc2/version/1646929111/image.jpg</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i1f555b34900068ed/version/1635077850/image.png</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i2431578350877ecf/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i2c52b79c59c808e2/version/1646929111/image.jpg</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i2ca5e50b296ab098/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i3071d8f0dbdb43d1/version/1646929100/image.jpg</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i35ade04c3ffabed8/version/1646929102/image.jpg</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i390b3ffb11fa4d9f/version/1646929105/image.jpg</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i3d552f4eec2ea9a4/version/1646929108/image.jpg</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i44faa5b72e2c3abe/version/1635076404/image.jpg</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i59673a1696a943df/version/1635073004/image.jpg</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i5a4e087cc51d9eff/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i68db78e8367846f9/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i7f8b07b0b3be134f/version/1635076010/image.jpg</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i7fb409883d53c6e1/version/1646929099/image.jpg</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i86d89fb1c9d222ac/version/1635076010/image.jpg</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i8b76faa2f7708def/version/1635073315/image.jpg</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i8fc446b466344ce5/version/1646929100/image.jpg</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i9651566c5512def4/version/1646929103/image.jpg</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i98e3985c15a01182/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/i99fc76f488f96fcf/version/1635076010/image.jpg</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/ia892bc1da229a281/version/1646929107/image.jpg</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/ibb1cddf567a1136a/version/1646929103/image.jpg</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/ibc36f3c6e901258e/version/1646929107/image.jpg</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/icba6f8640b1c9ee7/version/1646929100/image.jpg</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/icf781a0fc90b2d6d/version/1646929106/image.jpg</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/id18510b89f7dab43/version/1635077858/image.jpg</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/ie1473ade0392efea/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/ie2444d018789488f/version/1635072796/image.jpg</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/ie9d09c88bf4f52e6/version/1646929110/image.png</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/ied4065840a96ac7f/version/1646929099/image.jpg</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/ied4f511af000b6ef/version/1646929106/image.jpg</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/if2b6b432678038df/version/1635077850/image.jpg</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/if355e435ed6a2bba/version/1635077853/image.jpg</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://image.jimcdn.com/app/cms/image/transf/none/path/s84b4360c536d0972/image/ifb1ebcac9e7f5a25/version/1646929099/image.jpg</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://itagakinatsuki.jimdofree.com/#</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>閉じる</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://itagakinatsuki.jimdofree.com//itagakinatsuki.jimdofree.com/j/privacy</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>プライバシーポリシー</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://itagakinatsuki.jimdofree.com/</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>ITAGAKI NATSUKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://itagakinatsuki.jimdofree.com/about/</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>概要</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://itagakinatsuki.jimdofree.com/login</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>ログイン</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://itagakinatsuki.jimdofree.com/sitemap/</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>サイトマップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://itagakinatsuki.jimdofree.com/お問い合せ/</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>お問い合せ</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://itagakinatsuki.jimdofree.com/プロフィール/</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>プロフィール</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://itagakinatsuki.jimdofree.com/作品集/</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>作品集</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://itagakinatsuki.jimdofree.com/展示歴/</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>展示歴</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://jp.jimdo.com/?utm_source=cre-itagakinatsuki&amp;amp;utm_medium=footer%20ad&amp;amp;utm_campaign=ownads%20webview</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Jimdo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
